--- a/Testing/TestCase.xlsx
+++ b/Testing/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Learning\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA0D80A-45FF-4783-B713-725DF3E2F266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E115B7-5C6C-4E40-9FBE-2497E16FC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC712DDF-0024-4FAA-9F17-5B5443F30F6F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>HEADER</t>
   </si>
@@ -148,6 +148,33 @@
   </si>
   <si>
     <t>e) Cancel button</t>
+  </si>
+  <si>
+    <t>citibank</t>
+  </si>
+  <si>
+    <t>citibank_amount_transfer_120</t>
+  </si>
+  <si>
+    <t>amount transfer</t>
+  </si>
+  <si>
+    <t>SRS_CBO+_1.1</t>
+  </si>
+  <si>
+    <t>TW should have UN,PSW,URL</t>
+  </si>
+  <si>
+    <t>User should have balance in his accouint</t>
+  </si>
+  <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>functionality tc</t>
+  </si>
+  <si>
+    <t>In amount transfer module it should accept positive integer</t>
   </si>
 </sst>
 </file>
@@ -240,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -260,6 +287,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -269,13 +299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -594,21 +618,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1365F574-037D-4B66-9598-0C135674C738}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="4"/>
     <col min="11" max="11" width="46.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="31.28515625" style="1" customWidth="1"/>
@@ -623,30 +647,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -710,7 +734,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="J3" s="4">
         <v>1</v>
       </c>

--- a/Testing/TestCase.xlsx
+++ b/Testing/TestCase.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Learning\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E115B7-5C6C-4E40-9FBE-2497E16FC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E86E84A-32F7-4519-A1D3-050C95C57878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC712DDF-0024-4FAA-9F17-5B5443F30F6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC712DDF-0024-4FAA-9F17-5B5443F30F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="158">
   <si>
     <t>HEADER</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Severity</t>
   </si>
   <si>
-    <t>Test Case Name</t>
-  </si>
-  <si>
     <t>Brief Description</t>
   </si>
   <si>
@@ -175,13 +173,349 @@
   </si>
   <si>
     <t>In amount transfer module it should accept positive integer</t>
+  </si>
+  <si>
+    <t>Test Case Type</t>
+  </si>
+  <si>
+    <t>Following are the test cases to test FAN Textfield</t>
+  </si>
+  <si>
+    <t>enter valid 10 digit account number into from account number(FAN) textfield</t>
+  </si>
+  <si>
+    <t>error message should not be displayed</t>
+  </si>
+  <si>
+    <t>enter alphabets into FAN textfield</t>
+  </si>
+  <si>
+    <t>abcdefgh</t>
+  </si>
+  <si>
+    <t>error message should be displayed</t>
+  </si>
+  <si>
+    <t>enter special chareacters into FAN Texrfield</t>
+  </si>
+  <si>
+    <t>!@!#!$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter 9 digit number </t>
+  </si>
+  <si>
+    <t>enter 11 digit number</t>
+  </si>
+  <si>
+    <t>enter alphanumeric data</t>
+  </si>
+  <si>
+    <t>21212fhskf</t>
+  </si>
+  <si>
+    <t>enter point in number</t>
+  </si>
+  <si>
+    <t>leave blank</t>
+  </si>
+  <si>
+    <t>enter all zeros</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>12345678901</t>
+  </si>
+  <si>
+    <t>enter space between numbers</t>
+  </si>
+  <si>
+    <t>212121 212</t>
+  </si>
+  <si>
+    <t>enter space at the beginging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 909090909</t>
+  </si>
+  <si>
+    <t>Enter invalid 10 digit a/c no infor FAN textfield</t>
+  </si>
+  <si>
+    <t>2222222222</t>
+  </si>
+  <si>
+    <t>Enter invalid 9 digit account num</t>
+  </si>
+  <si>
+    <t>909090218</t>
+  </si>
+  <si>
+    <t>Enter 11 digit digit num</t>
+  </si>
+  <si>
+    <t>90902190210</t>
+  </si>
+  <si>
+    <t>Following are the test cases to test TAN Textfield make sure FAN textfield should have valid data</t>
+  </si>
+  <si>
+    <t>enter same FAN which is mentioned in TAN field</t>
+  </si>
+  <si>
+    <t>1234567890 FAN</t>
+  </si>
+  <si>
+    <t>1234567890 TAN</t>
+  </si>
+  <si>
+    <t>Use FAN test cases for TAN</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>5.16</t>
+  </si>
+  <si>
+    <t>Enter valid 10 digit account number</t>
+  </si>
+  <si>
+    <t>3232323289</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Following are the tesr cases to test amount textfield , make sure FAN Textfield and TAN textfield is having a valid date</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Enter valid amount textfield and click on transfer button</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Confirmation message should be displayed</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>enter decimal value into FAN textfield</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>zero value transfer</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>click on browser back button</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>homw page should be displayed</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>enter valid amount, and click on cancel button</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>enter -ve num</t>
+  </si>
+  <si>
+    <t>-1010</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>enter 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 </t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>enter 100</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>enter 5000</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>enter 5001</t>
+  </si>
+  <si>
+    <t>6.13</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>50001</t>
+  </si>
+  <si>
+    <t>6.14</t>
+  </si>
+  <si>
+    <t>enter alphabets</t>
+  </si>
+  <si>
+    <t>wfsf</t>
+  </si>
+  <si>
+    <t>6.15</t>
+  </si>
+  <si>
+    <t>enter special char</t>
+  </si>
+  <si>
+    <t>!@#</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
+    <t>enter apha number</t>
+  </si>
+  <si>
+    <t>sddhf213</t>
+  </si>
+  <si>
+    <t>6.17</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>4323.23</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>space between nums</t>
+  </si>
+  <si>
+    <t>3434 43</t>
+  </si>
+  <si>
+    <t>6.19</t>
+  </si>
+  <si>
+    <t>234+121</t>
+  </si>
+  <si>
+    <t>6.20</t>
+  </si>
+  <si>
+    <t>operator between num</t>
+  </si>
+  <si>
+    <t>paste a number from clipboard</t>
+  </si>
+  <si>
+    <t>pasting number is disabled msg displayed</t>
+  </si>
+  <si>
+    <t>6.21</t>
+  </si>
+  <si>
+    <t>try copy pasting a num into textfield</t>
+  </si>
+  <si>
+    <t>Open the browser and enter the test URL https://&lt;servername&gt;cb.com</t>
+  </si>
+  <si>
+    <t>Login as user a with valid username and password</t>
+  </si>
+  <si>
+    <t>Login page should be displayed</t>
+  </si>
+  <si>
+    <t>click on amount transfer link</t>
+  </si>
+  <si>
+    <t>amount transfer page should be displayed</t>
+  </si>
+  <si>
+    <t>Enter user a's a/c no into FAN textfield and user b's A/C into TAN textfield and amount as 500 into amount textfield, click on transfer button</t>
+  </si>
+  <si>
+    <t>Confirmatin msg sould be didplayed</t>
+  </si>
+  <si>
+    <t>click on account balance link</t>
+  </si>
+  <si>
+    <t>a)account balance page should be displayed b) balance aboumt should be displated old balance - transfer balance</t>
+  </si>
+  <si>
+    <t>click on transaction link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Transaction page should be displayed          b) transferred amount, date, time, user a a/c no should be displayed  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +527,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,22 +612,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -302,8 +645,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1365F574-037D-4B66-9598-0C135674C738}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,12 +996,12 @@
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="47" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="4"/>
+    <col min="10" max="10" width="9.140625" style="14"/>
     <col min="11" max="11" width="46.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="10" customWidth="1"/>
     <col min="13" max="13" width="38.85546875" style="1" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="11.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="4" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="15.140625" style="1" customWidth="1"/>
@@ -647,30 +1010,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -695,142 +1058,844 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="J3" s="14">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J4" s="14">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J5" s="14">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J5" s="4">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J12" s="14">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="J13" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="10">
+        <v>9832893289</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J14" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J15" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J16" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="10">
+        <v>898989899</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1212121.21</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="14">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="14">
+        <v>4.12</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="14">
+        <v>4.13</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="14">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="10:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J27" s="14">
+        <v>5</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="10">
+        <v>898989899</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="14">
+        <v>5.8</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="10">
+        <v>1212121.21</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J37" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J38" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J39" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J40" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J41" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J44" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="10:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="J45" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="10:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J46" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J47" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J48" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J49" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J50" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J51" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J52" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J53" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J54" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J55" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J56" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J57" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J58" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J59" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J60" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J61" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J62" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J63" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="10:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J64" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J65" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -839,6 +1904,189 @@
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:T1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L15" r:id="rId1" xr:uid="{36B15122-ECE8-4A08-847F-F760927A3533}"/>
+    <hyperlink ref="L32" r:id="rId2" xr:uid="{0E357F10-51B4-4D43-8EB3-2EF0B267E499}"/>
+    <hyperlink ref="L59" r:id="rId3" xr:uid="{6F76A554-0C5C-403D-9B9E-E985EF116606}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J38 J39:J43" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19360AD-4CC9-446F-9971-7F732DFF8C9E}">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="59.85546875" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testing/TestCase.xlsx
+++ b/Testing/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Learning\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E86E84A-32F7-4519-A1D3-050C95C57878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C11004-E886-4C05-90AF-7BC61F0CE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC712DDF-0024-4FAA-9F17-5B5443F30F6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
   <si>
     <t>HEADER</t>
   </si>
@@ -509,6 +509,33 @@
   </si>
   <si>
     <t xml:space="preserve">a) Transaction page should be displayed          b) transferred amount, date, time, user a a/c no should be displayed  </t>
+  </si>
+  <si>
+    <t>click on logout</t>
+  </si>
+  <si>
+    <t>login as user b with valid username and password, click on login button</t>
+  </si>
+  <si>
+    <t>home page should be displayed</t>
+  </si>
+  <si>
+    <t>a) account balance page should be displayed b) balance amount should be displayed old balance + transferred balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. transaction page should be displayed          b. transferred amount, date, time, user a's a/c no should be displayed.  </t>
+  </si>
+  <si>
+    <t>Scenario 4</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
   </si>
 </sst>
 </file>
@@ -1919,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19360AD-4CC9-446F-9971-7F732DFF8C9E}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,47 +2065,114 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J5">
+      <c r="K5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K6" t="s">
         <v>150</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>155</v>
+        <v>4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K10" t="s">
         <v>156</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/TestCase.xlsx
+++ b/Testing/TestCase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Learning\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C11004-E886-4C05-90AF-7BC61F0CE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A16E2D7-F9EC-433B-AFFA-E5018DC44A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC712DDF-0024-4FAA-9F17-5B5443F30F6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AC712DDF-0024-4FAA-9F17-5B5443F30F6F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Functional" sheetId="1" r:id="rId1"/>
+    <sheet name="Integration" sheetId="2" r:id="rId2"/>
+    <sheet name="System" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="187">
   <si>
     <t>HEADER</t>
   </si>
@@ -536,6 +537,66 @@
   </si>
   <si>
     <t>Scenario 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check for OD functionality when user applies for the first time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a one time activation charge of Rs 250 should be levied along with 2% interest at the end of month. </t>
+  </si>
+  <si>
+    <t>Login as User A, apply OD of Rs 20,000, and click on logout</t>
+  </si>
+  <si>
+    <t>Home page displayed at the end</t>
+  </si>
+  <si>
+    <t>Login as Manager, approve user A's OD, click on logout</t>
+  </si>
+  <si>
+    <t>Login as User A, check OD balance 20000, click on logout</t>
+  </si>
+  <si>
+    <t>OD balance 20,000 should be displayed</t>
+  </si>
+  <si>
+    <t>Chage the server date to next 30 days</t>
+  </si>
+  <si>
+    <t>System date should be changed to next month</t>
+  </si>
+  <si>
+    <t>Login as User A, check OD balance need to be repaind</t>
+  </si>
+  <si>
+    <t>OD reapaid balance should be 20650</t>
+  </si>
+  <si>
+    <t>Login as manager, deposit Rs 650 , logout</t>
+  </si>
+  <si>
+    <t>Login as user A, repay 20650</t>
+  </si>
+  <si>
+    <t>Check theOD balance</t>
+  </si>
+  <si>
+    <t>Should be 0000</t>
+  </si>
+  <si>
+    <t>To check the OD functionality when user applies for the second time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No activation charges should be levied, only interested amount to be added at the end of the month. </t>
+  </si>
+  <si>
+    <t>Login as manager, deposit Rs 450 , logout</t>
+  </si>
+  <si>
+    <t>Login as user A, repay 20400</t>
+  </si>
+  <si>
+    <t>OD reapaid balance should be 20400</t>
   </si>
 </sst>
 </file>
@@ -643,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -691,6 +752,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1948,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19360AD-4CC9-446F-9971-7F732DFF8C9E}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,4 +2253,306 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF2D267-3B49-4326-86AB-B9001C069D12}">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="59.85546875" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="18"/>
+      <c r="K3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1.2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1.3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1.4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1.5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1.6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1.7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1.8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="18"/>
+      <c r="K13" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>2.1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>2.4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>2.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>2.6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>2.7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>2.8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing/TestCase.xlsx
+++ b/Testing/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Learning\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A16E2D7-F9EC-433B-AFFA-E5018DC44A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6735F4E6-46F7-42F0-9B52-E94CCC737F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AC712DDF-0024-4FAA-9F17-5B5443F30F6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="190">
   <si>
     <t>HEADER</t>
   </si>
@@ -597,6 +597,15 @@
   </si>
   <si>
     <t>OD reapaid balance should be 20400</t>
+  </si>
+  <si>
+    <t>Own name</t>
+  </si>
+  <si>
+    <t>Reviewer(Another TE)</t>
+  </si>
+  <si>
+    <t>Test Lead</t>
   </si>
 </sst>
 </file>
@@ -2259,14 +2268,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF2D267-3B49-4326-86AB-B9001C069D12}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="59.85546875" customWidth="1"/>
     <col min="12" max="12" width="40.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2370,8 +2384,17 @@
       <c r="L4" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J5">
         <v>1.1000000000000001</v>
       </c>
@@ -2381,16 +2404,34 @@
       <c r="L5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J6">
         <v>1.2</v>
       </c>
       <c r="K6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J7">
         <v>1.3</v>
       </c>
@@ -2400,8 +2441,17 @@
       <c r="L7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J8">
         <v>1.4</v>
       </c>
@@ -2411,8 +2461,17 @@
       <c r="L8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J9">
         <v>1.5</v>
       </c>
@@ -2422,24 +2481,51 @@
       <c r="L9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>1.6</v>
       </c>
       <c r="K10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>1.7</v>
       </c>
       <c r="K11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>1.8</v>
       </c>
@@ -2448,6 +2534,15 @@
       </c>
       <c r="L12" t="s">
         <v>181</v>
+      </c>
+      <c r="P12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2456,6 +2551,15 @@
         <v>166</v>
       </c>
       <c r="L13" s="19"/>
+      <c r="P13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R13" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="J14">
@@ -2467,8 +2571,17 @@
       <c r="L14" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J15">
         <v>2.1</v>
       </c>
@@ -2478,16 +2591,34 @@
       <c r="L15" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J16">
         <v>2.2000000000000002</v>
       </c>
       <c r="K16" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="10:18" ht="30" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>2.2999999999999998</v>
       </c>
@@ -2497,8 +2628,17 @@
       <c r="L17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="10:18" ht="30" x14ac:dyDescent="0.25">
       <c r="J18">
         <v>2.4</v>
       </c>
@@ -2508,8 +2648,17 @@
       <c r="L18" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="10:18" ht="30" x14ac:dyDescent="0.25">
       <c r="J19">
         <v>2.5</v>
       </c>
@@ -2519,24 +2668,51 @@
       <c r="L19" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="10:18" ht="30" x14ac:dyDescent="0.25">
       <c r="J20">
         <v>2.6</v>
       </c>
       <c r="K20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="10:18" ht="30" x14ac:dyDescent="0.25">
       <c r="J21">
         <v>2.7</v>
       </c>
       <c r="K21" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="10:18" ht="30" x14ac:dyDescent="0.25">
       <c r="J22">
         <v>2.8</v>
       </c>
@@ -2545,6 +2721,15 @@
       </c>
       <c r="L22" t="s">
         <v>181</v>
+      </c>
+      <c r="P22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R22" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/TestCase.xlsx
+++ b/Testing/TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Learning\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6735F4E6-46F7-42F0-9B52-E94CCC737F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7AB106-FE39-4849-9B1B-B6C798B9EEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AC712DDF-0024-4FAA-9F17-5B5443F30F6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC712DDF-0024-4FAA-9F17-5B5443F30F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="191">
   <si>
     <t>HEADER</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>Test Lead</t>
+  </si>
+  <si>
+    <t>Loign page will game</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1365F574-037D-4B66-9598-0C135674C738}">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2268,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF2D267-3B49-4326-86AB-B9001C069D12}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,6 +2424,9 @@
       <c r="K6" t="s">
         <v>171</v>
       </c>
+      <c r="L6" t="s">
+        <v>190</v>
+      </c>
       <c r="P6" t="s">
         <v>187</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J9">
         <v>1.5</v>
       </c>
